--- a/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
+++ b/published-data/fonds-solidarite/fds-2020-12-30/fonds-solidarite-volet-1-departemental-categorie-juridique-latest.xlsx
@@ -23326,10 +23326,10 @@
         </is>
       </c>
       <c r="C479" t="n">
-        <v>91690</v>
+        <v>91692</v>
       </c>
       <c r="D479" t="n">
-        <v>132992596</v>
+        <v>132996755</v>
       </c>
       <c r="E479" t="inlineStr">
         <is>
@@ -26542,10 +26542,10 @@
         </is>
       </c>
       <c r="C546" t="n">
-        <v>247992</v>
+        <v>247991</v>
       </c>
       <c r="D546" t="n">
-        <v>383121173</v>
+        <v>383118452</v>
       </c>
       <c r="E546" t="inlineStr">
         <is>
@@ -37102,10 +37102,10 @@
         </is>
       </c>
       <c r="C766" t="n">
-        <v>104206</v>
+        <v>104205</v>
       </c>
       <c r="D766" t="n">
-        <v>152011803</v>
+        <v>152010365</v>
       </c>
       <c r="E766" t="inlineStr">
         <is>
@@ -38494,10 +38494,10 @@
         </is>
       </c>
       <c r="C795" t="n">
-        <v>3293</v>
+        <v>3294</v>
       </c>
       <c r="D795" t="n">
-        <v>7439625</v>
+        <v>7443841</v>
       </c>
       <c r="E795" t="inlineStr">
         <is>
